--- a/Project Time Estimate.xlsx
+++ b/Project Time Estimate.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2FBF88-F76E-438B-99E4-659755FC0D9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="시트1" sheetId="1" r:id="rId4"/>
+    <sheet name="시트1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Task</t>
   </si>
@@ -22,45 +31,18 @@
     <t>Difficulty</t>
   </si>
   <si>
-    <t>Set up base lighting</t>
-  </si>
-  <si>
     <t>SHORT</t>
   </si>
   <si>
-    <t>Greybox level</t>
-  </si>
-  <si>
     <t>MEDIUM</t>
   </si>
   <si>
-    <t>Model assets</t>
-  </si>
-  <si>
     <t>LONG</t>
   </si>
   <si>
-    <t>Look dev</t>
-  </si>
-  <si>
     <t>EPIC</t>
   </si>
   <si>
-    <t>Layout</t>
-  </si>
-  <si>
-    <t>Environment Effects</t>
-  </si>
-  <si>
-    <t>Lighting</t>
-  </si>
-  <si>
-    <t>Build/Render</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Hours</t>
   </si>
   <si>
@@ -74,46 +56,400 @@
   </si>
   <si>
     <t>Average work day</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>적</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제작</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">x) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>싱글톤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클래스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인터페이스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매니저</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기본</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클래스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHORT</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>점프</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대쉬</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>무기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시스템</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEDIUM</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비행</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시스템</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>LONG</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구현</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <b/>
-      <sz val="33.0"/>
+      <sz val="33"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <u/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="9">
@@ -121,7 +457,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -167,101 +503,80 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="26">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -451,20 +766,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.85546875" customWidth="1"/>
+    <col min="2" max="2" width="45.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,232 +803,239 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
-        <v>6</v>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24" t="s">
+        <v>16</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>7</v>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
+        <v>12</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
-        <v>8</v>
+      <c r="C4" s="24" t="s">
+        <v>16</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>9</v>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>17</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
-        <v>10</v>
+      <c r="C5" s="24" t="s">
+        <v>16</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6">
-      <c r="A6" s="5" t="s">
-        <v>11</v>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
+        <v>18</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="5" t="s">
-        <v>6</v>
+      <c r="C6" s="24" t="s">
+        <v>19</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>12</v>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="s">
+        <v>20</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="5" t="s">
-        <v>6</v>
+      <c r="C7" s="24" t="s">
+        <v>21</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8">
-      <c r="A8" s="5" t="s">
-        <v>13</v>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
-        <v>4</v>
+      <c r="C8" s="24" t="s">
+        <v>21</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9">
-      <c r="A9" s="5" t="s">
-        <v>14</v>
-      </c>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="C9" s="5"/>
       <c r="D9" s="6"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12">
+      <c r="C11" s="5"/>
+      <c r="D11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="10">
-        <f>(COUNTIF(C2:C19,"SHORT")*B24)+(COUNTIF(C2:C19,"MEDIUM"*B25)+(COUNTIF(C2:C19,"LONG")*B26)+(COUNTIF(C2:C19,"EPIC")*B27)+(COUNTIF(C2:C19,"R&amp;D")*B28))</f>
-        <v>46</v>
-      </c>
-      <c r="F12" s="11">
-        <f>D12/B29</f>
-        <v>5.75</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="C12" s="5"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14">
+      <c r="C13" s="5"/>
+      <c r="D13" s="19">
+        <f>(COUNTIF(C2:C20,"SHORT")*B25)+(COUNTIF(C2:C20,"MEDIUM"*B26)+(COUNTIF(C2:C20,"LONG")*B27)+(COUNTIF(C2:C20,"EPIC")*B28)+(COUNTIF(C2:C20,"R&amp;D")*B29))</f>
+        <v>24</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="20">
+        <f>D13/B30</f>
+        <v>6</v>
+      </c>
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15">
+      <c r="C14" s="5"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
-      <c r="C15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16">
+      <c r="C15" s="5"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17">
+      <c r="C16" s="5"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
-      <c r="C17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18">
+      <c r="C17" s="5"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19">
+      <c r="C18" s="5"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="4"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22">
+      <c r="C19" s="5"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="21"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
-      <c r="B22" s="12" t="s">
-        <v>18</v>
-      </c>
+      <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="6"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23">
-      <c r="A23" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>16</v>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="6"/>
@@ -712,12 +1043,12 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24">
-      <c r="A24" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="2">
-        <v>2.0</v>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="6"/>
@@ -725,12 +1056,12 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25">
-      <c r="A25" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="15">
-        <v>6.0</v>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="6"/>
@@ -738,12 +1069,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26">
-      <c r="A26" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="17">
-        <v>16.0</v>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="10">
+        <v>4</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="6"/>
@@ -751,12 +1082,12 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
     </row>
-    <row r="27">
-      <c r="A27" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="19">
-        <v>24.0</v>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="10">
+        <v>8</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="6"/>
@@ -764,12 +1095,12 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28">
-      <c r="A28" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="21">
-        <v>40.0</v>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="10">
+        <v>32</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="6"/>
@@ -777,12 +1108,12 @@
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="29">
-      <c r="A29" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="23">
-        <v>8.0</v>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="10">
+        <v>40</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="6"/>
@@ -790,20 +1121,35 @@
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
     </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="10">
+        <v>4</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="D10:E11"/>
-    <mergeCell ref="F10:G11"/>
-    <mergeCell ref="D12:E19"/>
-    <mergeCell ref="F12:G19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="D13:E20"/>
+    <mergeCell ref="F13:G20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:G21"/>
   </mergeCells>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="C2:C19">
+  <phoneticPr fontId="7" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" sqref="C2:C20" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"-,SHORT,MEDIUM,LONG,EPIC,R&amp;D"</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>